--- a/resources/G3EI1/Notes_ApresRat.xlsx
+++ b/resources/G3EI1/Notes_ApresRat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B122E182-F913-4FDF-ACAA-47BB56D35715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7DBC24-0EA8-40C2-93D0-77359B3C3D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{92D376FE-1D44-481B-9053-633DD71ADE42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{92D376FE-1D44-481B-9053-633DD71ADE42}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -500,20 +498,20 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -543,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>19000041</v>
       </c>
@@ -581,9 +579,9 @@
         <v>13.84</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>19000041</v>
+        <v>19000042</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -619,9 +617,9 @@
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>19000041</v>
+        <v>19000043</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -657,9 +655,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>19000041</v>
+        <v>19000044</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -695,9 +693,9 @@
         <v>13.34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>19000041</v>
+        <v>19000045</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -733,9 +731,9 @@
         <v>15.91</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>19000041</v>
+        <v>19000046</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -771,9 +769,9 @@
         <v>11.29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>19000041</v>
+        <v>19000047</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -809,9 +807,9 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>19000041</v>
+        <v>19000048</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -847,9 +845,9 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>19000041</v>
+        <v>19000049</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -885,9 +883,9 @@
         <v>14.02</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>19000041</v>
+        <v>19000050</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
